--- a/HR Department/Staff Documebt/Hospital_Staff_Contact_List.xlsx
+++ b/HR Department/Staff Documebt/Hospital_Staff_Contact_List.xlsx
@@ -629,8 +629,8 @@
   </sheetPr>
   <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1370,7 +1370,7 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
-  <pageMargins left="0.26" right="0.46" top="0.75" bottom="0.55000000000000004" header="0.3" footer="0.3"/>
-  <pageSetup scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="67" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>